--- a/biology/Botanique/Festuca_arvernensis/Festuca_arvernensis.xlsx
+++ b/biology/Botanique/Festuca_arvernensis/Festuca_arvernensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fétuque d'Auvergne (Festuca arvernensis) est une espèce de plantes monocotylédones de la famille des Poaceae (graminées), originaire de France (Auvergne).
 Noms vernaculaires : fétuque d'Auvergne (français), festuca arvèrnica (espagnol).
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (10 juillet 2016)[1] : 	
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (10 juillet 2016) : 	
 Festuca cinerea var. glauca Stohr,
 Festuca glauca Lam., nom. illeg.,
 Festuca glauca var. donacella Wallr.,
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace, haute de 30 à 60 cm.
 L'inflorescence est une panicule ouverte et dense de 4 à 6,5 cm de long. Les épillets comptent de 3 à 5 fleurons fertiles.
@@ -580,11 +596,13 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une herbacée des pelouses basophiles médioeuropéennes occidentales.
-En Europe, elle est presque exclusivement présente dans le Massif central [2] et croît dans les landes à genêt purgatif, les pelouses sèches et les fentes des roches siliceuses ou basaltiques.
-Aux États-Unis, l'espèce serait présente en Californie et au Nouveau-Mexique[3] sans que l'on sache vraiment s'il s'agit bien de Festuca arvernensis ou d'une variante de Festuca glauca. Elle a en tout cas été introduite. Elle est nommée parfois dans ce pays Fétuque des Champs (Field Fescue).
+En Europe, elle est presque exclusivement présente dans le Massif central  et croît dans les landes à genêt purgatif, les pelouses sèches et les fentes des roches siliceuses ou basaltiques.
+Aux États-Unis, l'espèce serait présente en Californie et au Nouveau-Mexique sans que l'on sache vraiment s'il s'agit bien de Festuca arvernensis ou d'une variante de Festuca glauca. Elle a en tout cas été introduite. Elle est nommée parfois dans ce pays Fétuque des Champs (Field Fescue).
 </t>
         </is>
       </c>
@@ -613,10 +631,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un fourrage comme toutes les fétuques.
-La capacité de Festuca arvernensis de se développer dans un site très pollué est à l'étude[4].
+La capacité de Festuca arvernensis de se développer dans un site très pollué est à l'étude.
 </t>
         </is>
       </c>
@@ -645,9 +665,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (10 juillet 2016)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (10 juillet 2016) :
 sous-espèce Festuca arvernensis subsp. costei (St.-Yves) Auquier &amp; Kerguélen</t>
         </is>
       </c>
